--- a/data/Hepes_assay_2013.xlsx
+++ b/data/Hepes_assay_2013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/Project_5_Hepes_Morris_2013/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C71E6-F62E-9847-A533-5AA5B38A798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36025E3-7D64-6140-B802-6461CA36F944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="28140" windowHeight="16600" xr2:uid="{683A9C14-524D-3349-ABC5-452A7BAD600B}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28140" windowHeight="16480" xr2:uid="{683A9C14-524D-3349-ABC5-452A7BAD600B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hepes_array_2013" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="25">
   <si>
     <t>Buffer</t>
   </si>
@@ -114,15 +114,6 @@
   <si>
     <t>Hepes_treatment</t>
   </si>
-  <si>
-    <t>rep 4-6: tech2</t>
-  </si>
-  <si>
-    <t>rep 1-3: tech 1</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
 </sst>
 </file>
 
@@ -176,11 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B13AF-F68E-754D-937C-9DFD4080AD01}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +502,7 @@
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -543,33 +536,30 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>0.01</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>988.57132352689041</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>937.51108918129421</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>990.64529982300212</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>981.62807571337817</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>970.35248907932544</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>996.49108080557028</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -581,33 +571,30 @@
       <c r="K2" s="2">
         <v>65</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>0.01</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
         <v>706.97768103170279</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>696.97827859175823</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>680.67447288472408</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>723.94701875349665</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>693.705071137348</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>699.06822198356269</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -620,29 +607,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>0.01</v>
       </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
         <v>975.43345455928852</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>954.96310013363791</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>900.75964403431954</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>973.13284750539106</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>939.05790014409092</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>914.67723492024845</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -655,29 +642,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>0.01</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>1077.1031314834631</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1119.9004598765014</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1020.860801285487</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1101.9910842655518</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>1095.6417230688598</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>1025.0165533027646</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -690,29 +677,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>0.01</v>
       </c>
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
         <v>1413.5070738041422</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>1144.9587002661247</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>1057.1964485642634</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>979.32192284569851</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>1144.8223355830346</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>1059.4734814800106</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -725,29 +712,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>0.01</v>
       </c>
-      <c r="B7" s="3">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="5">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
         <v>622.83712390747837</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>698.63086867790025</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>605.00516473248979</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>686.21923386077981</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>745.08053569168374</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>626.7434737563508</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -760,29 +747,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>0.01</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>1262.2201136907147</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>1317.5118995414473</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>1092.4117078355991</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1280.2698387253915</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>1360.2202806649943</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>1113.809957937734</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -795,29 +782,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>0.01</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>25</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>1383.250666327202</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>1428.0732354648626</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>1299.6911892487237</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>1335.3390756142931</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1466.8621082546097</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>1352.6982220927653</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -830,29 +817,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>0.01</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>1326.976403127891</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>1515.5190274836682</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1271.3540543805552</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1255.9213632050435</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1464.866382958035</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>1289.8767170928772</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -865,29 +852,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>0.01</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>35</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>1695.5219629474122</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>2060.5442251575005</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>1618.1329853253976</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>1631.9846076736981</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>1974.032749164423</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>1772.1951953334674</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -900,29 +887,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>962.61859311878925</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>973.08288034824636</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>964.44475432404272</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>979.94352313147249</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>970.89974740497087</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>969.84948344847612</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -935,29 +922,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
         <v>722.92711254905953</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>711.72456651879554</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>695.43286139384804</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>712.53184820942636</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>721.12671880004018</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>703.82115776169871</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -970,29 +957,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
         <v>1013.900469932575</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>994.2652575032921</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>948.43629955753386</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>987.52642605764379</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>965.03240285668403</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>958.03105700112383</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1005,29 +992,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>6</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>1113.8171519459604</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>1162.3465979582211</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>1109.1638803209808</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>1092.7590359301144</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>1164.6373165797804</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>1084.5193662774202</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1040,29 +1027,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B16" s="3">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
         <v>1351.7081431789002</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>1188.3715549411613</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>1040.0505193546119</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>1320.5706829005089</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>1138.402903803611</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>1038.2494763704049</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1075,29 +1062,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
         <v>798.77067493886352</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>823.85366404954311</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>539.260241005735</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>780.18278427960672</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>848.44677577376956</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>591.90094464486629</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -1110,29 +1097,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>20</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>1405.087579266245</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>1391.5847987968539</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>1082.3132611847907</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>1423.8657553682283</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>1619.5929201665476</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>1038.4798931306852</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -1145,29 +1132,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>25</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>1567.9654957188643</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>1725.6383951148764</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>1229.7320679094903</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>1648.0606495353823</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>1727.0905239488479</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>1201.1196447017514</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -1180,29 +1167,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>30</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>1654.3131100968048</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>1749.3154294299297</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>965.40681704978147</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>1639.7158556701345</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>1562.386456876709</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>1183.4157533107489</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -1215,29 +1202,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>35</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>2215.9884741484616</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>2188.298243001605</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>1691.3992703882791</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>2064.7293827554086</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>2215.8557359410652</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>1564.0434671663636</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -1250,29 +1237,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>0.05</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
         <v>967.425910863475</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>924.70583439712186</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>964.87400546356514</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>983.80678338717416</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>978.64839426377239</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <v>956.46894363195429</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -1285,29 +1272,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>0.05</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
         <v>728.27470550401995</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>693.4924466235417</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>704.70622890860011</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>735.18413787543648</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>737.44003210728488</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>704.23430620722502</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -1320,29 +1307,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>0.05</v>
       </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
         <v>1050.2861210558463</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>1063.2228888717748</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>996.63654151370429</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>1002.0858790996758</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <v>1071.4127615062762</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <v>1022.5995051313557</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -1355,29 +1342,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>0.05</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>6</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>1283.4952829663778</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>1294.0682397632156</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>1241.8606073464186</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>1334.1904025651065</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>1302.8386856818811</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>1235.5777594662643</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -1390,29 +1377,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>0.05</v>
       </c>
-      <c r="B26" s="3">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="5">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
         <v>1767.1392908346506</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>1402.8629097674786</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>1033.3918061501436</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>1566.4259148375177</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <v>1506.1861728528891</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>1277.119234447239</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -1425,29 +1412,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>0.05</v>
       </c>
-      <c r="B27" s="3">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="5">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4">
         <v>1034.828228995545</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>1114.9126239783502</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>849.43286516805244</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>1108.341510070409</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <v>1174.2870301407543</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="4">
         <v>955.3794076908531</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -1460,29 +1447,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>0.05</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>20</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>1999.1776095898535</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>1969.8956390657377</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>1676.2064922281188</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>2003.001977693214</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <v>1972.1309264134011</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>1660.5536061890966</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -1495,29 +1482,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>0.05</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>2366.2321833560263</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>2298.2130830434908</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>1959.3329815585514</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>2322.4633458772123</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <v>2094.1326866174718</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="4">
         <v>2007.6660649349988</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -1530,29 +1517,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>0.05</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>30</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>2431.8958640807618</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>2446.9909472550298</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>2041.5838205408068</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>2555.0941736872774</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <v>2378.9743793433786</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="4">
         <v>2019.0813889324641</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -1565,29 +1552,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>0.05</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>35</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>2784.2875887912733</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>2825.9439615241836</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>2623.8305204386388</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>3072.1368983051088</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <v>3074.5027616487023</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="4">
         <v>2676.9284061071239</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -1600,29 +1587,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>0.1</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
         <v>968.76234224631798</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>938.91684978598437</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <v>942.9541706412175</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="4">
         <v>953.40665715206239</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="4">
         <v>968.18115685466228</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="4">
         <v>953.95834074718755</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -1635,29 +1622,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>0.1</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
         <v>845.05828754854633</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>763.3931877010458</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>725.4665061326499</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>797.74674024474382</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <v>725.69987450146175</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="4">
         <v>737.71748116798358</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -1670,29 +1657,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>0.1</v>
       </c>
-      <c r="B34" s="3">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
         <v>1230.2786934958192</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>1088.1098318861614</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="4">
         <v>1152.5542347457758</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="4">
         <v>1155.0740846035558</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="4">
         <v>1081.4964880979985</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="4">
         <v>1135.8312014022729</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -1705,29 +1692,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>0.1</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="5">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>1547.5305350935528</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>1371.0746971179406</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="4">
         <v>1477.0437130258561</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="4">
         <v>1505.0777456801798</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <v>1351.3481776991803</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="4">
         <v>1460.947490423725</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -1740,29 +1727,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>0.1</v>
       </c>
-      <c r="B36" s="3">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="5">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
         <v>1674.8049628714523</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>1612.6509694864662</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>1668.8589481050201</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="4">
         <v>1755.8801992648073</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <v>1662.0612972989129</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="4">
         <v>1694.4080292952713</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -1775,29 +1762,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>0.1</v>
       </c>
-      <c r="B37" s="3">
-        <v>15</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" s="5">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4">
         <v>1151.4063777286556</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>1182.4354647714567</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="4">
         <v>1335.7185213007576</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="4">
         <v>1260.6870426359806</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="4">
         <v>1251.8713612202814</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="4">
         <v>1314.6939129519878</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -1810,29 +1797,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>0.1</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="5">
         <v>20</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>2144.3919800152953</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>2227.0094927981022</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="4">
         <v>2402.5896984405472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="4">
         <v>2167.4263077161795</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="4">
         <v>2189.7028113228494</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="4">
         <v>2420.615925053698</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -1845,29 +1832,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>0.1</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="5">
         <v>25</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>2433.7172004990098</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>2494.2071715888851</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>2835.3737264267188</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="4">
         <v>2401.8367656808214</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <v>2318.9210753418574</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="4">
         <v>2873.9518528846966</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -1880,29 +1867,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>0.1</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="5">
         <v>30</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>2599.515375613677</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>2627.5912003273024</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="4">
         <v>2984.3284142520124</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="4">
         <v>2619.45427528037</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="4">
         <v>2637.4218875499682</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="4">
         <v>2997.7755126066486</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -1915,29 +1902,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>0.1</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="5">
         <v>35</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>3226.8289641208235</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>3278.6801517237627</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="4">
         <v>3551.2255267377845</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="4">
         <v>3311.0943014279587</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="4">
         <v>3307.1694148249458</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="4">
         <v>3622.5007386897209</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -1950,29 +1937,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
         <v>983.21084709725301</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>914.01290824455145</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>972.80556346085734</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>983.02793595876233</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="4">
         <v>959.09017825371154</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="4">
         <v>962.89148473669866</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -1985,29 +1972,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
         <v>1140.2053138760205</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>937.43585985180573</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>1010.04453833482</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="4">
         <v>1088.4848330562565</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
         <v>942.95113230139395</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="4">
         <v>1022.5677764671009</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -2020,29 +2007,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3">
-        <v>3</v>
-      </c>
-      <c r="C44" s="2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>1</v>
+      </c>
+      <c r="B44" s="5">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4">
         <v>2292.9226009501549</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>2210.1670968057579</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="4">
         <v>2333.2877974412645</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="4">
         <v>2369.0128353791533</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="4">
         <v>2292.5331564958901</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="4">
         <v>2354.6178144400337</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -2055,29 +2042,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5">
         <v>6</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>4041.6442180927838</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>3436.1442317905285</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="4">
         <v>3671.0187156812308</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="4">
         <v>4082.9330244667467</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="4">
         <v>3371.8258546985412</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="4">
         <v>3754.2947182528032</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -2090,29 +2077,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3">
-        <v>10</v>
-      </c>
-      <c r="C46" s="2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4">
         <v>5859.7779097758075</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>5128.8915105176411</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="4">
         <v>5778.1932355097761</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="4">
         <v>5884.3595735916861</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="4">
         <v>5224.4522783411194</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="4">
         <v>5802.2886177199189</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -2125,29 +2112,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3">
-        <v>15</v>
-      </c>
-      <c r="C47" s="2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5">
+        <v>15</v>
+      </c>
+      <c r="C47" s="4">
         <v>5914.8431680912117</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>5129.229759592843</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="4">
         <v>5619.8018428570131</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="4">
         <v>5827.6956702735524</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="4">
         <v>5138.700018550785</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="4">
         <v>5443.3678567368806</v>
       </c>
       <c r="I47" s="2" t="s">
@@ -2160,29 +2147,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5">
         <v>20</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>9386.9961555935079</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>8232.5480790468973</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="4">
         <v>9358.0519748788302</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="4">
         <v>9743.1617306634398</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="4">
         <v>8103.9089077053732</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="4">
         <v>9386.7993563132277</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -2195,29 +2182,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="5">
         <v>25</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>10924.686907481733</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>9534.4453216489801</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="4">
         <v>10701.08793641062</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="4">
         <v>11033.088469284517</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="4">
         <v>9562.480357646391</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="4">
         <v>11155.832329391815</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -2230,29 +2217,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5">
         <v>30</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>12140.251685821158</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <v>10456.039811004845</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="4">
         <v>12023.671065255976</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>12352.84458863844</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="4">
         <v>9327.4877899648873</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="4">
         <v>12208.937747565788</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -2265,29 +2252,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>1</v>
+      </c>
+      <c r="B51" s="5">
         <v>35</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>13816.173019050824</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>11630.097070600707</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="4">
         <v>12806.415256417224</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>13846.845955799177</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <v>11839.742754278506</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="4">
         <v>13857.353095863076</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -2300,30 +2287,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>10</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
         <v>625.81205189517766</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="4">
         <v>592.20227751335915</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="4">
         <v>668.19172037257636</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>27</v>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>14</v>
@@ -2335,30 +2322,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>10</v>
-      </c>
-      <c r="B53" s="2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4">
         <v>2</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>3285.4158891713969</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>2742.8917376799118</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="4">
         <v>3579.3622034460277</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>27</v>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>14</v>
@@ -2370,30 +2357,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>10</v>
-      </c>
-      <c r="B54" s="3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5">
         <v>5</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>6838.3101691394468</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="4">
         <v>6353.3932776648981</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="4">
         <v>7612.7503256929858</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>27</v>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>14</v>
@@ -2405,30 +2392,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>10</v>
-      </c>
-      <c r="B55" s="3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>10</v>
+      </c>
+      <c r="B55" s="5">
         <v>7</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>11868.307879275668</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>10696.740804465233</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="4">
         <v>13113.837876401838</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>27</v>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>14</v>
@@ -2440,30 +2427,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>10</v>
-      </c>
-      <c r="B56" s="3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5">
         <v>16</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>18176.625901497042</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="4">
         <v>17735.205168891571</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="4">
         <v>22048.690053937193</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>27</v>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>14</v>
@@ -2475,30 +2462,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>10</v>
-      </c>
-      <c r="B57" s="3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>10</v>
+      </c>
+      <c r="B57" s="5">
         <v>21</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>17034.098650212203</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="4">
         <v>15875.546714841148</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="4">
         <v>20895.688615197734</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>27</v>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>14</v>
@@ -2510,30 +2497,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>10</v>
-      </c>
-      <c r="B58" s="3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>10</v>
+      </c>
+      <c r="B58" s="5">
         <v>25</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>21371.481570740751</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>17728.800818381776</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="4">
         <v>22350.274608029009</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>27</v>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>14</v>
@@ -2545,30 +2532,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>0</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
         <v>638.94171319761574</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="4">
         <v>635.88231199052802</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="4">
         <v>660.56370612836417</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>27</v>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>14</v>
@@ -2580,30 +2567,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>0</v>
+      </c>
+      <c r="B60" s="4">
         <v>2</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>550.94517505321267</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="4">
         <v>561.97427864692622</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="4">
         <v>573.66636809380634</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>27</v>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>14</v>
@@ -2615,30 +2602,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>0</v>
-      </c>
-      <c r="B61" s="3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>0</v>
+      </c>
+      <c r="B61" s="5">
         <v>5</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>642.37648705249262</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>636.64574808024759</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="4">
         <v>659.1209090023624</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>27</v>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>14</v>
@@ -2650,30 +2637,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>0</v>
-      </c>
-      <c r="B62" s="3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>0</v>
+      </c>
+      <c r="B62" s="5">
         <v>7</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>369.87437169064401</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="4">
         <v>319.86117465104348</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="4">
         <v>368.43380943711281</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>27</v>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>14</v>
@@ -2685,30 +2672,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>0</v>
-      </c>
-      <c r="B63" s="3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>0</v>
+      </c>
+      <c r="B63" s="5">
         <v>16</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>-65.254664104384574</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="4">
         <v>-328.26759025049842</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="4">
         <v>-45.019767005255062</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>27</v>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>14</v>
@@ -2720,30 +2707,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>0</v>
-      </c>
-      <c r="B64" s="3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>0</v>
+      </c>
+      <c r="B64" s="5">
         <v>21</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>-217.98375234422383</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="4">
         <v>-340.84200764266916</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="4">
         <v>22.556359516104749</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>27</v>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>14</v>
@@ -2755,30 +2742,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>0</v>
-      </c>
-      <c r="B65" s="3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5">
         <v>25</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>-109.19939630978888</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="4">
         <v>-282.31427548104125</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="4">
         <v>246.30313747634568</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>27</v>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>14</v>
@@ -2790,7 +2777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2799,7 +2786,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2808,7 +2795,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2817,7 +2804,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2826,7 +2813,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2835,7 +2822,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2844,7 +2831,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2853,7 +2840,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2862,7 +2849,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2871,7 +2858,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2880,7 +2867,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2889,7 +2876,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2898,7 +2885,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2907,7 +2894,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2916,8 +2903,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -2926,7 +2912,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -2935,7 +2921,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -2944,7 +2930,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -2953,7 +2939,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -2962,7 +2948,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -2971,7 +2957,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -2980,7 +2966,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -2989,7 +2975,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -2998,7 +2984,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3007,7 +2993,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3016,7 +3002,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3025,7 +3011,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3034,7 +3020,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3043,7 +3029,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3052,7 +3038,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3061,8 +3047,6 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J549">
     <sortCondition ref="C1:C549"/>
